--- a/docs/StructureDefinition-VAReferralEncounter.xlsx
+++ b/docs/StructureDefinition-VAReferralEncounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -125,19 +125,19 @@
     <t>Mapping: VistA</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>ReferralRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferralRequest TransferOfCare Request
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit
 </t>
   </si>
   <si>
@@ -150,23 +150,23 @@
     <t/>
   </si>
   <si>
-    <t>A request for referral or transfer of care</t>
-  </si>
-  <si>
-    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+    <t>An interaction during which services are provided to the patient</t>
+  </si>
+  <si>
+    <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
   </si>
   <si>
-    <t>clinical.careprovision</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
-    <t>ReferralRequest.id</t>
+    <t>Encounter[@moodCode='EVN']</t>
+  </si>
+  <si>
+    <t>workflow.encounter</t>
+  </si>
+  <si>
+    <t>Encounter.id</t>
   </si>
   <si>
     <t>1</t>
@@ -191,7 +191,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>ReferralRequest.meta</t>
+    <t>Encounter.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -207,7 +207,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>ReferralRequest.implicitRules</t>
+    <t>Encounter.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -227,7 +227,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>ReferralRequest.language</t>
+    <t>Encounter.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -255,7 +255,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>ReferralRequest.text</t>
+    <t>Encounter.text</t>
   </si>
   <si>
     <t>narrative
@@ -285,7 +285,7 @@
     <t>Act.text?</t>
   </si>
   <si>
-    <t>ReferralRequest.contained</t>
+    <t>Encounter.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -311,7 +311,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ReferralRequest.extension</t>
+    <t>Encounter.extension</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -361,7 +361,7 @@
     <t>REQUEST/CONSULTATION @PLACE OF CONSULTATION 123-6</t>
   </si>
   <si>
-    <t>ReferralRequest.modifierExtension</t>
+    <t>Encounter.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -380,559 +380,960 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>ReferralRequest.identifier</t>
+    <t>Encounter.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Business identifier that uniquely identifies the referral/care transfer request instance.</t>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>.id</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>RF1-6 / RF1-11</t>
-  </si>
-  <si>
-    <t>ReferralRequest.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ActivityDefinition|PlanDefinition)
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
+This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ReferralRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ReferralRequest|CarePlan|ProcedureRequest)
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Request fulfilled by this request</t>
-  </si>
-  <si>
-    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified status.</t>
+  </si>
+  <si>
+    <t>Encounter.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
+    <t>Classification of the encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActEncounterCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
+This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.period</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class</t>
+  </si>
+  <si>
+    <t>The time that the episode was in the specified class.</t>
+  </si>
+  <si>
+    <t>Encounter.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Specific type of encounter</t>
+  </si>
+  <si>
+    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+  </si>
+  <si>
+    <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The type of encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>PV1-4 / PV1-18</t>
+  </si>
+  <si>
+    <t>Encounter.priority</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter</t>
+  </si>
+  <si>
+    <t>Indicates the urgency of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActPriority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>PV2-25</t>
+  </si>
+  <si>
+    <t>Encounter.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter</t>
+  </si>
+  <si>
+    <t>The patient ro group present at the encounter.</t>
+  </si>
+  <si>
+    <t>While the encounter is always about the patient, the patient may not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ]/role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Episode(s) of care that this encounter should be recorded against</t>
+  </si>
+  <si>
+    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care, and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>PV1-54, PV1-53</t>
+  </si>
+  <si>
+    <t>Encounter.incomingReferral</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(ReferralRequest)
 </t>
   </si>
   <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ReferralRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t>grouperId
-requisition</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>The business identifier of the logical "grouping" request/order that this referral is a part of.</t>
-  </si>
-  <si>
-    <t>Allows multiple orders to be collected as part of a single requisition.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the authorization/intention reflected by the referral request record.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Workflow status is handled by the Task resource.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the referral.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>RF1-1</t>
-  </si>
-  <si>
-    <t>ReferralRequest.intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category
+    <t>The ReferralRequest that initiated this encounter</t>
+  </si>
+  <si>
+    <t>The referral request this encounter satisfies (incoming referral).</t>
+  </si>
+  <si>
+    <t>.reason.ClinicalDocument</t>
+  </si>
+  <si>
+    <t>Encounter.participant</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>The list of people responsible for providing the service.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Encounter.participant.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter.</t>
+  </si>
+  <si>
+    <t>The participant type indicates how an individual partitipates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>ROL-3 (or maybe PRT-4)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.period</t>
+  </si>
+  <si>
+    <t>Period of time during the encounter that the participant participated</t>
+  </si>
+  <si>
+    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
+  </si>
+  <si>
+    <t>.time</t>
+  </si>
+  <si>
+    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
-  </si>
-  <si>
-    <t>Distinguishes the "level" of authorization/demand implicit in this request.</t>
-  </si>
-  <si>
-    <t>The same resource structure is used when capturing proposals/recommendations, plans and actual requests.</t>
-  </si>
-  <si>
-    <t>Codes identifying the stage lifecycle stage of a request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>ReferralRequest.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Persons involved in the encounter other than the patient</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient.</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment)
 </t>
   </si>
   <si>
-    <t>Referral/Transition of care request type</t>
-  </si>
-  <si>
-    <t>An indication of the type of referral (or where applicable the type of transfer of care) request.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for types of referral; e.g. consult, transfer, temporary transfer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/referral-type</t>
-  </si>
-  <si>
-    <t>RF1-10</t>
-  </si>
-  <si>
-    <t>ReferralRequest.priority</t>
-  </si>
-  <si>
-    <t>Urgency of referral / transfer of care request</t>
-  </si>
-  <si>
-    <t>An indication of the urgency of referral (or where applicable the type of transfer of care) request.</t>
-  </si>
-  <si>
-    <t>Codes indicating the relative priority of the referral.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>RF1-2</t>
-  </si>
-  <si>
-    <t>ReferralRequest.serviceRequested</t>
-  </si>
-  <si>
-    <t>Actions requested as part of the referral</t>
-  </si>
-  <si>
-    <t>The service(s) that is/are requested to be provided to the patient.  For example: cardiac pacemaker insertion.</t>
-  </si>
-  <si>
-    <t>Codes indicating the types of services that might be requested as part of a referral.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4</t>
-  </si>
-  <si>
-    <t>ReferralRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t>The appointment that scheduled this encounter</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
+  </si>
+  <si>
+    <t>SCH-1 / SCH-2</t>
+  </si>
+  <si>
+    <t>Encounter.period</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter.</t>
+  </si>
+  <si>
+    <t>If not (yet) known, the end of the Period may be omitted.</t>
+  </si>
+  <si>
+    <t>.effectiveTime (low &amp; high)</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>PV1-44, PV1-45</t>
+  </si>
+  <si>
+    <t>Encounter.length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
-    <t>Patient referred to care or transfer</t>
-  </si>
-  <si>
-    <t>The patient who is the subject of a referral or transfer of care request.</t>
-  </si>
-  <si>
-    <t>Referral of family, group or community is to be catered for by profiles.</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>ReferralRequest.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encounter
+    <t>Quantity of time the encounter lasted (less time absent)</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+  </si>
+  <si>
+    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
+  </si>
+  <si>
+    <t>.lengthOfStayQuantity</t>
+  </si>
+  <si>
+    <t>(PV1-45 less PV1-44) iff ( (PV1-44 not empty) and (PV1-45 not empty) ); units in minutes</t>
+  </si>
+  <si>
+    <t>Encounter.reason</t>
+  </si>
+  <si>
+    <t>Indication
+Admission diagnosis</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place (code)</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
+    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition</t>
+  </si>
+  <si>
+    <t>Admission diagnosis
+discharge diagnosisindication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Procedure)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t>Reason the encounter takes place (resource)</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.role</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …)</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).</t>
+  </si>
+  <si>
+    <t>The type of diagnosis this condition represents</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>Originating encounter</t>
-  </si>
-  <si>
-    <t>The encounter at which the request for referral or transfer of care is initiated.</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>ReferralRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
+    <t>Ranking of the diagnosis (for each role type)</t>
+  </si>
+  <si>
+    <t>Ranking of the diagnosis (for each role type).</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].priority</t>
+  </si>
+  <si>
+    <t>Encounter.account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Account)
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
-  </si>
-  <si>
-    <t>When the service(s) requested in the referral should occur</t>
-  </si>
-  <si>
-    <t>The period of time within which the services identified in the referral/transfer of care is specified or required to occur.</t>
-  </si>
-  <si>
-    <t>When the occurrenceDateTime is used, then it is indicating that the requested service must happen before the specified date.</t>
-  </si>
-  <si>
-    <t>Use cases: (1) to indicate that the requested service is not to happen before a specified date, and saving the start date in Period.start; (2) to indicate that the requested service must happen before a specified date, and saving the end date in Period.end; (3) to indicate that the requested service must happen during the specified dates ("start" and "end" values).</t>
-  </si>
-  <si>
-    <t>when.planned</t>
-  </si>
-  <si>
-    <t>OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>ReferralRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createdOn
+    <t>The set of accounts that may be used for billing for this Encounter</t>
+  </si>
+  <si>
+    <t>The set of accounts that may be used for billing for this Encounter.</t>
+  </si>
+  <si>
+    <t>The billing system may choose to allocate billable items associated with the Encounter to different referenced Accounts based on internal business rules.</t>
+  </si>
+  <si>
+    <t>.pertains.A_Account</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization</t>
+  </si>
+  <si>
+    <t>Details about the admission to a healthcare service</t>
+  </si>
+  <si>
+    <t>Details about the admission to a healthcare service.</t>
+  </si>
+  <si>
+    <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.++The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.id</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.extension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.preAdmissionIdentifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier</t>
+  </si>
+  <si>
+    <t>Pre-admission identifier.</t>
+  </si>
+  <si>
+    <t>PV1-5</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t>The location from which the patient came before admission</t>
+  </si>
+  <si>
+    <t>The location from which the patient came before admission.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=ORG].role</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.admitSource</t>
+  </si>
+  <si>
+    <t>From where patient was admitted (physician referral, transfer)</t>
+  </si>
+  <si>
+    <t>From where patient was admitted (physician referral, transfer).</t>
+  </si>
+  <si>
+    <t>From where the patient was admitted.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+  </si>
+  <si>
+    <t>.admissionReferralSourceCode</t>
+  </si>
+  <si>
+    <t>PV1-14</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.reAdmission</t>
+  </si>
+  <si>
+    <t>The type of hospital re-admission that has occurred (if any). If the value is absent, then this is not identified as a readmission</t>
+  </si>
+  <si>
+    <t>Whether this hospitalization is a readmission and why if known.</t>
+  </si>
+  <si>
+    <t>The reason for re-admission of this hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v2-0092</t>
+  </si>
+  <si>
+    <t>PV1-13</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.dietPreference</t>
+  </si>
+  <si>
+    <t>Diet preferences reported by the patient</t>
+  </si>
+  <si>
+    <t>Diet preferences reported by the patient.</t>
+  </si>
+  <si>
+    <t>For example a patient may request both a dairy-free and nut-free diet preference (not mutually exclusive).</t>
+  </si>
+  <si>
+    <t>Used to track patient's diet restrictions and/or preference. For a complete description of the nutrition needs of a patient during their stay, one should use the nutritionOrder resource which links to Encounter.</t>
+  </si>
+  <si>
+    <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
+  </si>
+  <si>
+    <t>PV1-38</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy</t>
+  </si>
+  <si>
+    <t>Special courtesies (VIP, board member)</t>
+  </si>
+  <si>
+    <t>Special courtesies (VIP, board member).</t>
+  </si>
+  <si>
+    <t>Special courtesies</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+  </si>
+  <si>
+    <t>.specialCourtesiesCode</t>
+  </si>
+  <si>
+    <t>PV1-16</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialArrangement</t>
+  </si>
+  <si>
+    <t>Wheelchair, translator, stretcher, etc.</t>
+  </si>
+  <si>
+    <t>Any special requests that have been made for this hospitalization encounter, such as the provision of specific equipment or other things.</t>
+  </si>
+  <si>
+    <t>Special arrangements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+  </si>
+  <si>
+    <t>.specialArrangementCode</t>
+  </si>
+  <si>
+    <t>PV1-15 / OBR-30 / OBR-43</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.destination</t>
+  </si>
+  <si>
+    <t>Location to which the patient is discharged</t>
+  </si>
+  <si>
+    <t>Location to which the patient is discharged.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=DST]</t>
+  </si>
+  <si>
+    <t>PV1-37</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.dischargeDisposition</t>
+  </si>
+  <si>
+    <t>Category or kind of location after discharge</t>
+  </si>
+  <si>
+    <t>Category or kind of location after discharge.</t>
+  </si>
+  <si>
+    <t>Discharge Disposition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+  </si>
+  <si>
+    <t>.dischargeDispositionCode</t>
+  </si>
+  <si>
+    <t>PV1-36</t>
+  </si>
+  <si>
+    <t>Encounter.location</t>
+  </si>
+  <si>
+    <t>List of locations where the patient has been</t>
+  </si>
+  <si>
+    <t>List of locations where  the patient has been during this encounter.</t>
+  </si>
+  <si>
+    <t>Virtual encounters can be recorded in the Encounter by specifying a location reference to a location of type "kind" such as "client's home" and an encounter.class = "virtual".</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC]</t>
+  </si>
+  <si>
+    <t>Encounter.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.location.location</t>
+  </si>
+  <si>
+    <t>Location the encounter takes place</t>
+  </si>
+  <si>
+    <t>The location where the encounter takes place.</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>PV1-3 / PV1-6 / PV1-11 / PV1-42 / PV1-43</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.id</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
   </si>
   <si>
-    <t>Date of creation/activation</t>
-  </si>
-  <si>
-    <t>Date/DateTime of creation for draft requests and date of activation for active requests.</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>RF1-7 / RF1-9?</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-rfr-1:onBehalfOf can only be specified if agent is practitioner or device {(agent.resolve() is Device) or (agent.resolve() is Practitioner) or onBehalfOf.exists().not()}</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Individual making the request</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who initiated the request.</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>ReferralRequest.requester.onBehalfOf</t>
+    <t>Encounter.location.location.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Encounter.location.location.display</t>
+  </si>
+  <si>
+    <t>PATIENT LOCATION</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>This is the location of the patient when the consult/request order was placed.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>REQUEST/CONSULTATION @PATIENT LOCATION 123-.04b</t>
+  </si>
+  <si>
+    <t>Encounter.location.status</t>
+  </si>
+  <si>
+    <t>planned | active | reserved | completed</t>
+  </si>
+  <si>
+    <t>The status of the participants' presence at the specified location during the period specified. If the participant is is no longer at the location, then the period will have an end date/time.</t>
+  </si>
+  <si>
+    <t>When the patient is no longer active at a location, then the period end date is entered, and the status may be changed to completed.</t>
+  </si>
+  <si>
+    <t>The status of the location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-location-status</t>
+  </si>
+  <si>
+    <t>.role.statusCode</t>
+  </si>
+  <si>
+    <t>Encounter.location.period</t>
+  </si>
+  <si>
+    <t>Time period during which the patient was present at the location</t>
+  </si>
+  <si>
+    <t>Time period during which the patient was present at the location.</t>
+  </si>
+  <si>
+    <t>Encounter.serviceProvider</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
-    <t>Organization agent is acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when authoring the request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rfr-1
+    <t>The custodian organization of this Encounter record</t>
+  </si>
+  <si>
+    <t>An organization that is in charge of maintaining the information of this Encounter (e.g. who maintains the report or the master service catalog item, etc.). This MAY be the same as the organization on the Patient record, however it could be different. This MAY not be not the Service Delivery Location's Organization.</t>
+  </si>
+  <si>
+    <t>.particiaption[typeCode=PFM].role</t>
+  </si>
+  <si>
+    <t>PV1-10 / PL.6  &amp; PL.1  (note: HL7 v2 definition is "the treatment or type of surgery that the patient is scheduled to receive"; seems slightly out of alignment with the concept name 'hospital service'. Would not trust that implementations apply this semantic by default)</t>
+  </si>
+  <si>
+    <t>Encounter.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>ReferralRequest.specialty</t>
-  </si>
-  <si>
-    <t>The clinical specialty (discipline) that the referral is requested for</t>
-  </si>
-  <si>
-    <t>Indication of the clinical domain or discipline to which the referral or transfer of care request is sent.  For example: Cardiology Gastroenterology Diabetology.</t>
-  </si>
-  <si>
-    <t>Codes indicating the types of capability the referred to service provider must have.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-specialty</t>
-  </si>
-  <si>
-    <t>RF1-3</t>
-  </si>
-  <si>
-    <t>ReferralRequest.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>Receiver of referral / transfer of care request</t>
-  </si>
-  <si>
-    <t>The healthcare provider(s) or provider organization(s) who/which is to receive the referral/transfer of care request.</t>
-  </si>
-  <si>
-    <t>There will be a primary receiver. But the request can be received by any number of "copied to" providers or organizations.</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
-  </si>
-  <si>
-    <t>ReferralRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Reason for referral / transfer of care request</t>
-  </si>
-  <si>
-    <t>Description of clinical condition indicating why referral/transfer of care is requested.  For example:  Pathological Anomalies, Disabled (physical or mental),  Behavioral Management.</t>
-  </si>
-  <si>
-    <t>Codes indicating why the referral is being requested.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>ReferralRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
-</t>
-  </si>
-  <si>
-    <t>Why is service needed?</t>
-  </si>
-  <si>
-    <t>Indicates another resource whose existence justifies this request.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ReferralRequest.description</t>
-  </si>
-  <si>
-    <t>A textual description of the referral</t>
-  </si>
-  <si>
-    <t>The reason element gives a short description of why the referral is being made, the description expands on this to support a more complete clinical summary.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additonal information to support referral or transfer of care request</t>
-  </si>
-  <si>
-    <t>Any additional (administrative, financial or clinical) information required to support request for referral or transfer of care.  For example: Presenting problems/chief complaints Medical History Family History Alerts Allergy/Intolerance and Adverse Reactions Medications Observations/Assessments (may include cognitive and fundtional assessments) Diagnostic Reports Care Plan.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments made about referral request</t>
-  </si>
-  <si>
-    <t>Comments made about the referral request by any of the participants.</t>
-  </si>
-  <si>
-    <t>ReferralRequest.relevantHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eventHistory
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Provenance)
-</t>
-  </si>
-  <si>
-    <t>Key events in history of request</t>
-  </si>
-  <si>
-    <t>Links to Provenance records for past versions of this resource or fulfilling request or event resources that identify key state transitions or updates that are likely to be relevant to a user looking at the current version of the resource.</t>
-  </si>
-  <si>
-    <t>This element does not point to the Provenance associated with the *current* version of the resource - as it would be created after this version existed.  The Provenance for the current version can be retrieved with a _revinclude.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
+    <t>Another Encounter this encounter is part of</t>
+  </si>
+  <si>
+    <t>Another Encounter of which this encounter is a part of (administratively or in time).</t>
+  </si>
+  <si>
+    <t>This is also used for associating a child's encounter back to the mother's encounter.++Refer to the Notes section in the Patient resource for further details.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=COMP, moodCode=EVN]</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1090,7 +1491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="24.99609375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1100,7 +1501,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1113,22 +1514,22 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.9921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.76171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="57.0703125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.35546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="80.75390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="76.6953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.35546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="246.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1353,10 +1754,10 @@
         <v>47</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -1903,13 +2304,13 @@
         <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -2014,13 +2415,13 @@
         <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -2234,13 +2635,13 @@
         <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -2345,13 +2746,13 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2460,12 +2861,12 @@
         <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2473,22 +2874,22 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>123</v>
@@ -2496,7 +2897,9 @@
       <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>43</v>
@@ -2521,13 +2924,13 @@
         <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>43</v>
@@ -2545,13 +2948,13 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>43</v>
@@ -2563,22 +2966,22 @@
         <v>43</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2594,18 +2997,20 @@
         <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -2654,7 +3059,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2666,13 +3071,13 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -2683,18 +3088,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
@@ -2703,23 +3108,19 @@
         <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>43</v>
       </c>
@@ -2767,13 +3168,13 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>43</v>
@@ -2785,29 +3186,29 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>138</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>43</v>
@@ -2816,21 +3217,21 @@
         <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>43</v>
       </c>
@@ -2878,13 +3279,13 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>43</v>
@@ -2896,7 +3297,7 @@
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>43</v>
@@ -2907,18 +3308,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>43</v>
@@ -2930,20 +3331,18 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>43</v>
       </c>
@@ -2967,37 +3366,37 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
@@ -3009,10 +3408,10 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>43</v>
@@ -3020,11 +3419,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3037,24 +3436,22 @@
         <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>43</v>
       </c>
@@ -3078,13 +3475,13 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3102,7 +3499,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3120,7 +3517,7 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3131,7 +3528,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3139,7 +3536,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
@@ -3151,16 +3548,16 @@
         <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3187,13 +3584,13 @@
         <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
@@ -3211,10 +3608,10 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3229,10 +3626,10 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
@@ -3240,7 +3637,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3263,13 +3660,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3296,13 +3693,13 @@
         <v>43</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>43</v>
@@ -3320,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3338,18 +3735,18 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>43</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3369,16 +3766,16 @@
         <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3405,31 +3802,31 @@
         <v>43</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3441,16 +3838,16 @@
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3458,7 +3855,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3466,7 +3863,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
@@ -3478,20 +3875,18 @@
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3540,10 +3935,10 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3558,10 +3953,10 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3569,18 +3964,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -3589,18 +3984,20 @@
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -3649,13 +4046,13 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
@@ -3667,10 +4064,10 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3678,43 +4075,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -3762,13 +4157,13 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
@@ -3780,10 +4175,10 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -3791,15 +4186,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
@@ -3811,16 +4206,16 @@
         <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3847,13 +4242,13 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
@@ -3871,10 +4266,10 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -3889,10 +4284,10 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -3900,15 +4295,15 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -3920,16 +4315,16 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3980,10 +4375,10 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -3992,24 +4387,24 @@
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4020,7 +4415,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>43</v>
@@ -4029,18 +4424,20 @@
         <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4065,13 +4462,13 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4089,13 +4486,13 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4107,29 +4504,29 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>43</v>
@@ -4141,17 +4538,15 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4176,13 +4571,13 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
@@ -4200,13 +4595,13 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4218,50 +4613,50 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4311,13 +4706,13 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -4329,18 +4724,18 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4348,10 +4743,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
@@ -4363,13 +4758,13 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4420,13 +4815,13 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>43</v>
@@ -4438,18 +4833,18 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4460,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -4469,21 +4864,19 @@
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4531,16 +4924,16 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>43</v>
@@ -4549,18 +4942,18 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>247</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4571,7 +4964,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -4580,16 +4973,16 @@
         <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4616,13 +5009,13 @@
         <v>43</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
@@ -4640,36 +5033,36 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>43</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4680,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
@@ -4689,20 +5082,18 @@
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4751,13 +5142,13 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
@@ -4769,10 +5160,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -4780,11 +5171,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4800,18 +5191,20 @@
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -4836,13 +5229,13 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
@@ -4860,7 +5253,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4878,10 +5271,10 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -4889,11 +5282,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4906,21 +5299,23 @@
         <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -4969,7 +5364,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4987,18 +5382,18 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>271</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5009,7 +5404,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5018,18 +5413,20 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5054,13 +5451,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5078,13 +5475,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5096,18 +5493,18 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5118,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>43</v>
@@ -5130,13 +5527,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5187,13 +5584,13 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -5205,18 +5602,18 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5227,7 +5624,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5236,16 +5633,16 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5296,13 +5693,13 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
@@ -5314,29 +5711,29 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>43</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -5345,20 +5742,18 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5407,35 +5802,4221 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>289</v>
+      <c r="G50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM39">
+  <autoFilter ref="A1:AM77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5445,7 +10026,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
